--- a/basic English learn/the part of passage/2024-3-18(4)/allwords.xlsx
+++ b/basic English learn/the part of passage/2024-3-18(4)/allwords.xlsx
@@ -4,19 +4,100 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="9540" windowHeight="7000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t xml:space="preserve">opposite </t>
+  </si>
+  <si>
+    <t xml:space="preserve">maintaining </t>
+  </si>
+  <si>
+    <t>dryer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apologize </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shots </t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>blur</t>
+  </si>
+  <si>
+    <t>delirious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surprisingly </t>
+  </si>
+  <si>
+    <t>spare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aesthetic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">plain </t>
+  </si>
+  <si>
+    <t>give out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conflicted </t>
+  </si>
+  <si>
+    <t>recover from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">straight </t>
+  </si>
+  <si>
+    <t>lay around</t>
+  </si>
+  <si>
+    <t>hype up</t>
+  </si>
+  <si>
+    <t>splurge</t>
+  </si>
+  <si>
+    <t>hack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compact </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -941,14 +1022,124 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A3:A23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="19.7272727272727" customWidth="1"/>
+    <col min="2" max="2" width="16.7272727272727" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -964,7 +1155,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -981,7 +1172,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/basic English learn/the part of passage/2024-3-18(4)/allwords.xlsx
+++ b/basic English learn/the part of passage/2024-3-18(4)/allwords.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9540" windowHeight="7000"/>
+    <workbookView windowWidth="11030" windowHeight="7000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,69 +29,303 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t xml:space="preserve">opposite </t>
   </si>
   <si>
+    <t>相反的</t>
+  </si>
+  <si>
     <t xml:space="preserve">maintaining </t>
   </si>
   <si>
+    <t>保持</t>
+  </si>
+  <si>
     <t>dryer</t>
   </si>
   <si>
+    <t>烘干机</t>
+  </si>
+  <si>
     <t xml:space="preserve">apologize </t>
   </si>
   <si>
+    <t>道歉</t>
+  </si>
+  <si>
     <t xml:space="preserve">shots </t>
   </si>
   <si>
+    <t>。。。</t>
+  </si>
+  <si>
     <t>dumb</t>
   </si>
   <si>
     <t>blur</t>
   </si>
   <si>
+    <t>模糊不清的事情，看不清</t>
+  </si>
+  <si>
     <t>delirious</t>
   </si>
   <si>
+    <t>发疯的</t>
+  </si>
+  <si>
     <t xml:space="preserve">surprisingly </t>
   </si>
   <si>
+    <t>惊人地，出人意料地</t>
+  </si>
+  <si>
     <t>spare</t>
   </si>
   <si>
+    <t>adj:多余的，v节约，n.备用品，零件</t>
+  </si>
+  <si>
     <t xml:space="preserve">aesthetic </t>
   </si>
   <si>
+    <t>adj 审美的，美学的 n 审美</t>
+  </si>
+  <si>
     <t xml:space="preserve">plain </t>
   </si>
   <si>
+    <t>n, 平原 adj 朴素的 普通的 平平的</t>
+  </si>
+  <si>
     <t>give out</t>
   </si>
   <si>
+    <t>宣布 发出</t>
+  </si>
+  <si>
     <t xml:space="preserve">conflicted </t>
   </si>
   <si>
+    <t>争论</t>
+  </si>
+  <si>
     <t>recover from</t>
   </si>
   <si>
+    <t>从... 恢复过来</t>
+  </si>
+  <si>
     <t xml:space="preserve">straight </t>
   </si>
   <si>
+    <t>直的 笔直的</t>
+  </si>
+  <si>
     <t>lay around</t>
   </si>
   <si>
     <t>hype up</t>
   </si>
   <si>
+    <t>夸大宣传 过分宣扬</t>
+  </si>
+  <si>
     <t>splurge</t>
   </si>
   <si>
+    <t>挥霍</t>
+  </si>
+  <si>
     <t>hack</t>
   </si>
   <si>
+    <t>砍 劈</t>
+  </si>
+  <si>
     <t xml:space="preserve">compact </t>
+  </si>
+  <si>
+    <t xml:space="preserve">adj 小型的 紧密的  </t>
+  </si>
+  <si>
+    <t>out of shape</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变形</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变样</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">percent </t>
+  </si>
+  <si>
+    <t>百分之</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indeed </t>
+  </si>
+  <si>
+    <t>确实，的确</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graciously </t>
+  </si>
+  <si>
+    <t>仁慈的，雅致地</t>
+  </si>
+  <si>
+    <t xml:space="preserve">except </t>
+  </si>
+  <si>
+    <t>除...外</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tiny </t>
+  </si>
+  <si>
+    <t>微小的，极小的</t>
+  </si>
+  <si>
+    <t>iron man</t>
+  </si>
+  <si>
+    <t>铁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">needless </t>
+  </si>
+  <si>
+    <t xml:space="preserve">不需要的 </t>
+  </si>
+  <si>
+    <t>quarantine</t>
+  </si>
+  <si>
+    <t>n 隔离 隔离期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scientifically </t>
+  </si>
+  <si>
+    <t>系统地  科学地</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proven </t>
+  </si>
+  <si>
+    <t>prove 过分  证明</t>
+  </si>
+  <si>
+    <t>ado</t>
+  </si>
+  <si>
+    <t>麻烦 困难</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>thunderstorm</t>
+    </r>
+  </si>
+  <si>
+    <t>暴雨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cake </t>
+  </si>
+  <si>
+    <t>饼</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>skip</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">hindsight </t>
+  </si>
+  <si>
+    <t>后见之明  事后诸葛亮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excuses </t>
+  </si>
+  <si>
+    <t>借口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fulfillment </t>
+  </si>
+  <si>
+    <t>履行</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in terms of </t>
+  </si>
+  <si>
+    <t>就...而言</t>
+  </si>
+  <si>
+    <t>theory</t>
+  </si>
+  <si>
+    <t>理论</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assure </t>
+  </si>
+  <si>
+    <t>v 使确信  响保证</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slap </t>
+  </si>
+  <si>
+    <t xml:space="preserve">打 拍 </t>
+  </si>
+  <si>
+    <t>pece</t>
+  </si>
+  <si>
+    <t>步速，速度</t>
   </si>
 </sst>
 </file>
@@ -104,13 +338,25 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -255,6 +501,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -577,139 +829,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1022,121 +1280,362 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:A23"/>
+  <dimension ref="A3:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="19.7272727272727" customWidth="1"/>
-    <col min="2" max="2" width="16.7272727272727" customWidth="1"/>
+    <col min="1" max="1" width="26.5454545454545" customWidth="1"/>
+    <col min="2" max="2" width="34.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" ht="18.5" spans="1:2">
+      <c r="A37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" ht="18.5" spans="1:2">
+      <c r="A39" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" ht="18.5" spans="1:2">
+      <c r="A47" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/basic English learn/the part of passage/2024-3-18(4)/allwords.xlsx
+++ b/basic English learn/the part of passage/2024-3-18(4)/allwords.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11030" windowHeight="7000"/>
+    <workbookView windowWidth="12490" windowHeight="7000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1282,8 +1282,8 @@
   <sheetPr/>
   <dimension ref="A3:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
